--- a/data/income_statement/2digits/size/62_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/62_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>62-Computer programming, consultancy and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>62-Computer programming, consultancy and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,527 +841,597 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1294125.3854</v>
+        <v>1332363.95249</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1528741.46502</v>
+        <v>1572224.59605</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1734292.7289</v>
+        <v>1790964.86838</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1893984.19931</v>
+        <v>1961285.30602</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3080338.0598</v>
+        <v>3183888.31169</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3673279.22124</v>
+        <v>3767685.04412</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4310778.6405</v>
+        <v>4489850.34685</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4799596.71569</v>
+        <v>4971694.1899</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5970103.38741</v>
+        <v>6217423.56135</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8550271.17874</v>
+        <v>8705468.100959999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10018131.30802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10259098.78235</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14251421.763</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1154310.56502</v>
+        <v>1184540.65238</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1380968.97758</v>
+        <v>1423833.7373</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1558369.55113</v>
+        <v>1604191.78748</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1691604.79953</v>
+        <v>1740700.42856</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2797840.3012</v>
+        <v>2865867.49258</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3270771.30962</v>
+        <v>3341071.30061</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3831113.89348</v>
+        <v>3983051.42197</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4248744.54621</v>
+        <v>4391637.72197</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5234239.199390001</v>
+        <v>5454448.589430001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7315389.41337</v>
+        <v>7406218.72529</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8544660.537459999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8654124.45293</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12002571.911</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>109295.10996</v>
+        <v>106574.45006</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>113822.03978</v>
+        <v>110829.96734</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>130751.16259</v>
+        <v>143092.73423</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>141599.41849</v>
+        <v>161439.66647</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>217191.85501</v>
+        <v>247315.36841</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>322442.8789</v>
+        <v>345569.04009</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>369166.3272</v>
+        <v>399556.73696</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>442530.66426</v>
+        <v>457440.05702</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>577651.2045</v>
+        <v>602587.0925599999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1014614.41125</v>
+        <v>1065872.8303</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1235548.07477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1360534.14885</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1944185.639</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>30519.71042</v>
+        <v>41248.85004999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>33950.44766</v>
+        <v>37560.89141</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>45172.01518</v>
+        <v>43680.34667</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>60779.98129</v>
+        <v>59145.21099</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>65305.90359</v>
+        <v>70705.4507</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>80065.03272</v>
+        <v>81044.70342000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>110498.41982</v>
+        <v>107242.18792</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>108321.50522</v>
+        <v>122616.41091</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>158212.98352</v>
+        <v>160387.87936</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>220267.35412</v>
+        <v>233376.54537</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>237922.69579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>244440.18057</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>304664.213</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>16629.41853</v>
+        <v>16693.07962</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>14091.93934</v>
+        <v>14335.29729</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>17280.4021</v>
+        <v>17150.45465</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>19565.46054</v>
+        <v>19402.00574</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>24203.61177</v>
+        <v>26385.00048</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>28168.2171</v>
+        <v>29201.4394</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>52653.83322</v>
+        <v>59859.59195</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>60251.76958</v>
+        <v>63852.48958</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>83598.95556</v>
+        <v>93517.9531</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>184344.87682</v>
+        <v>188034.17909</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>219652.40087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>210400.89651</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>350089.036</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>11814.67136</v>
+        <v>11629.92001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>10662.40954</v>
+        <v>10893.1246</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>14240.19405</v>
+        <v>14312.51506</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>17071.45241</v>
+        <v>16636.45657</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>16496.06857</v>
+        <v>16128.01514</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>25090.39799</v>
+        <v>26150.5931</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>47913.21942</v>
+        <v>55297.94921</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>54494.17956</v>
+        <v>56953.12961</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>77406.67475000001</v>
+        <v>86514.77592</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>173085.46958</v>
+        <v>176668.08264</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>209442.67795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>199964.27165</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>328614.075</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4234.99921</v>
+        <v>4484.06772</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2404.80635</v>
+        <v>2406.43247</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2253.91862</v>
+        <v>2329.90329</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1890.88665</v>
+        <v>1719.89562</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6680.06597</v>
+        <v>9226.58891</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1831.99933</v>
+        <v>1810.67134</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3555.65151</v>
+        <v>3404.30685</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4070.48455</v>
+        <v>5246.24414</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3461.83191</v>
+        <v>4324.08082</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8578.9118</v>
+        <v>8626.55998</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8266.13949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8488.60296</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>19157.511</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>579.7479599999999</v>
+        <v>579.09189</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1024.72345</v>
+        <v>1035.74022</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>786.28943</v>
+        <v>508.0363</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>603.12148</v>
+        <v>1045.65355</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1027.47723</v>
+        <v>1030.39643</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1245.81978</v>
+        <v>1240.17496</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1184.96229</v>
+        <v>1157.33589</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1687.10547</v>
+        <v>1653.11583</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2730.4489</v>
+        <v>2679.09636</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2680.49544</v>
+        <v>2739.53647</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1943.58343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1948.0219</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2317.45</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1277495.96687</v>
+        <v>1315670.87287</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1514649.52568</v>
+        <v>1557889.29876</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1717012.3268</v>
+        <v>1773814.41373</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1874418.73877</v>
+        <v>1941883.30028</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3056134.44803</v>
+        <v>3157503.31121</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3645111.00414</v>
+        <v>3738483.60472</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4258124.80728</v>
+        <v>4429990.7549</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4739344.94611</v>
+        <v>4907841.70032</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5886504.43185</v>
+        <v>6123905.60825</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8365926.30192</v>
+        <v>8517433.921870001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9798478.90715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10048697.88584</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>13901332.727</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>799379.89083</v>
+        <v>817959.41427</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>968929.05599</v>
+        <v>987918.4988300001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1095723.3737</v>
+        <v>1134293.96081</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1140333.78643</v>
+        <v>1169934.312</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2003253.16088</v>
+        <v>2047207.66391</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2376296.53252</v>
+        <v>2422746.25378</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2792936.86735</v>
+        <v>2850960.8854</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3053892.24783</v>
+        <v>3140715.7546</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3772856.51474</v>
+        <v>3908777.52709</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5328109.26995</v>
+        <v>5401829.09187</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6233855.35896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6348496.69484</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>8944497.151000001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>31326.39888</v>
+        <v>33891.22008</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>33774.3066</v>
+        <v>33087.00861</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>54360.36965</v>
+        <v>55466.69047</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>41389.61757</v>
+        <v>42770.06774</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>68825.77158</v>
+        <v>71108.61576</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>90753.53744</v>
+        <v>90814.00635</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>94394.99090999999</v>
+        <v>104746.14633</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>91106.92069</v>
+        <v>96750.25468000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>109159.2173</v>
+        <v>112646.35865</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>208882.08152</v>
+        <v>216690.65094</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>225195.11484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>238302.85177</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>386340.343</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>360982.63911</v>
+        <v>362006.20215</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>438620.34408</v>
+        <v>440982.5276</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>441227.60827</v>
+        <v>440532.7087</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>440675.13294</v>
+        <v>442600.38745</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>898463.9526699999</v>
+        <v>903021.16981</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1027715.52939</v>
+        <v>1040019.53545</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1370311.19863</v>
+        <v>1382241.76349</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1462108.23511</v>
+        <v>1470577.64843</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1779537.75752</v>
+        <v>1825006.29862</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2508276.5898</v>
+        <v>2574911.92742</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2901813.39473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2933242.94947</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4385943.283</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>405633.8481600001</v>
+        <v>420654.74469</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>491076.52165</v>
+        <v>508405.98711</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>595335.02696</v>
+        <v>633494.19282</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>654522.69122</v>
+        <v>680817.51211</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1028023.48727</v>
+        <v>1065007.31032</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1244797.15048</v>
+        <v>1278750.01598</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1313490.90946</v>
+        <v>1350033.17527</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1485331.17167</v>
+        <v>1558031.60059</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1871149.3472</v>
+        <v>1957349.42337</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2573341.46718</v>
+        <v>2574523.54303</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3059321.53106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3129723.43408</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4130848.355</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1437.00468</v>
+        <v>1407.24735</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5457.88366</v>
+        <v>5442.97551</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>4800.368820000001</v>
@@ -1469,616 +1440,696 @@
         <v>3746.3447</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7939.949360000001</v>
+        <v>8070.56802</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>13030.31521</v>
+        <v>13162.696</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>14739.76835</v>
+        <v>13939.80031</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>15345.92036</v>
+        <v>15356.2509</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>13010.19272</v>
+        <v>13775.44645</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>37609.13145</v>
+        <v>35702.97048</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>47525.31832999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>47227.45952</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>41365.17</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>478116.07604</v>
+        <v>497711.4586</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>545720.4696900001</v>
+        <v>569970.79993</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>621288.9531</v>
+        <v>639520.45292</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>734084.9523400001</v>
+        <v>771948.9882799999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1052881.28715</v>
+        <v>1110295.6473</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1268814.47162</v>
+        <v>1315737.35094</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1465187.93993</v>
+        <v>1579029.8695</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1685452.69828</v>
+        <v>1767125.94572</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2113647.91711</v>
+        <v>2215128.08116</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3037817.03197</v>
+        <v>3115604.83</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3564623.54819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3700201.191</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4956835.576</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>346433.98319</v>
+        <v>362202.02059</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>401058.15332</v>
+        <v>413665.89765</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>434991.15784</v>
+        <v>452311.42525</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>521565.23038</v>
+        <v>544647.02824</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>742042.0982100001</v>
+        <v>778607.53288</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>877675.05851</v>
+        <v>913579.38004</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1027970.07686</v>
+        <v>1139541.24059</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1245470.23358</v>
+        <v>1280220.07041</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1464983.68683</v>
+        <v>1487082.68022</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1962170.76525</v>
+        <v>1961843.51281</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2429214.7716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2486938.61873</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2925699.945</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>62547.93563</v>
+        <v>63337.08687</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>74532.19759000001</v>
+        <v>77615.37828</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>83395.24537999999</v>
+        <v>88978.67001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>96641.51412000001</v>
+        <v>105223.24929</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>131249.7389</v>
+        <v>138521.4698</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>175384.11413</v>
+        <v>184892.5572</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>182778.86984</v>
+        <v>199916.51877</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>215763.97734</v>
+        <v>229874.52718</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>310148.84452</v>
+        <v>305798.26081</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>395721.7382200001</v>
+        <v>401789.4961</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>544265.7552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>552479.2951799999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>704424.9570000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>82564.38922</v>
+        <v>87858.17077</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>80877.38258</v>
+        <v>82524.42588</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>80567.28118000001</v>
+        <v>85080.86940000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>86860.64882999999</v>
+        <v>92950.55743</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>132083.81578</v>
+        <v>136971.89682</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>143552.73361</v>
+        <v>159651.32491</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>186452.62057</v>
+        <v>194894.0767</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>211255.95131</v>
+        <v>216618.40629</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>234730.16704</v>
+        <v>254892.15542</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>402153.09937</v>
+        <v>396763.01627</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>490498.42787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>498256.52164</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>557584.2120000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>201321.65834</v>
+        <v>211006.76295</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>245648.57315</v>
+        <v>253526.09349</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>271028.63128</v>
+        <v>278251.88584</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>338063.06743</v>
+        <v>346473.22152</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>478708.54353</v>
+        <v>503114.16626</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>558738.21077</v>
+        <v>569035.49793</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>658738.5864500001</v>
+        <v>744730.64512</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>818450.30493</v>
+        <v>833727.1369400001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>920104.67527</v>
+        <v>926392.26399</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1164295.92766</v>
+        <v>1163291.00044</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1394450.58853</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1436202.80191</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1663690.776</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>131682.09285</v>
+        <v>135509.43801</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>144662.31637</v>
+        <v>156304.90228</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>186297.79526</v>
+        <v>187209.02767</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>212519.72196</v>
+        <v>227301.96004</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>310839.18894</v>
+        <v>331688.11442</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>391139.41311</v>
+        <v>402157.9709</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>437217.86307</v>
+        <v>439488.62891</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>439982.4647</v>
+        <v>486905.87531</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>648664.23028</v>
+        <v>728045.4009400001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1075646.26672</v>
+        <v>1153761.31719</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1135408.77659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1213262.57227</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2031135.631</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>37957.88606</v>
+        <v>47304.527</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>34927.39099</v>
+        <v>51168.86528</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>52916.94452</v>
+        <v>63728.88712</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>35756.72082</v>
+        <v>42258.15181</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>72752.11098</v>
+        <v>97323.30490999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>83998.16654999999</v>
+        <v>97412.28577</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>134208.82106</v>
+        <v>174629.64389</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>163254.52346</v>
+        <v>190732.65715</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>163500.87252</v>
+        <v>199392.88522</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>744095.52985</v>
+        <v>750812.25628</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>444027.51339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>459574.40188</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1072288.535</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1626.17791</v>
+        <v>3162.01425</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>66.06487</v>
+        <v>4564.415639999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>439.41234</v>
+        <v>1224.66368</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3272.36643</v>
+        <v>2832.88407</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>865.8826700000001</v>
+        <v>13494.26645</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>91.64406</v>
+        <v>4210.871929999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>258.88091</v>
+        <v>25.17104</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2625.47188</v>
+        <v>190.48931</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4335.60014</v>
+        <v>181.10236</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>6424.96572</v>
+        <v>1141.79217</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>15724.40778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1627.39211</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>6936.698</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1444.87529</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>397.80924</v>
+        <v>397.80769</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>374.50235</v>
+        <v>374.50124</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>813.4309499999999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1852.67471</v>
+        <v>1332.37583</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2320.83792</v>
+        <v>8096.46357</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2458.28144</v>
+        <v>11819.26794</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2829.23017</v>
+        <v>3645.26295</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>2942.33349</v>
+        <v>6673.97124</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>18786.82097</v>
+        <v>7024.30482</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>9402.75793</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5053.468650000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1877.118</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>8686.46947</v>
+        <v>15547.70985</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7714.34269</v>
+        <v>13309.38651</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7305.72637</v>
+        <v>8506.18469</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10096.50257</v>
+        <v>13404.82026</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>13595.96961</v>
+        <v>18685.34462</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16019.78487</v>
+        <v>18137.57527</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17970.02988</v>
+        <v>24069.69557</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>23411.48812</v>
+        <v>29555.39364</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>27813.91619</v>
+        <v>37561.48622999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>87624.08278</v>
+        <v>81326.56578</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>104574.39243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>106790.08671</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>77633.296</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1736.17032</v>
+        <v>1717.48306</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1843.97437</v>
+        <v>1895.59239</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>602.602</v>
+        <v>648.59788</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1440.7129</v>
+        <v>1415.7129</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3003.23732</v>
+        <v>3022.695</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>2528.17551</v>
+        <v>2178.518</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2427.20466</v>
+        <v>2319.21749</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3618.23572</v>
+        <v>2984.6481</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1961.12883</v>
+        <v>2253.3591</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6603.652730000001</v>
+        <v>6514.42367</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>10295.66823</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>10141.66474</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>10382.61</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>587.15783</v>
+        <v>943.00784</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1474.96607</v>
+        <v>1491.01846</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>849.1743</v>
+        <v>878.40263</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>169.27414</v>
+        <v>376.00701</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1266.33877</v>
+        <v>1910.90016</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1733.30549</v>
+        <v>1792.83968</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2317.9167</v>
+        <v>2099.16188</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3205.81536</v>
+        <v>3829.02026</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1408.39799</v>
+        <v>1381.27077</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3190.39344</v>
+        <v>3496.88762</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>7270.75813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6354.987950000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4935.459</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1400.97348</v>
+        <v>1359.08281</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1172.28948</v>
+        <v>1119.22769</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>938.61412</v>
+        <v>983.33311</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1501.99301</v>
+        <v>1564.93836</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1179.15379</v>
+        <v>1209.4403</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2085.89152</v>
+        <v>2330.3705</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1850.36887</v>
+        <v>3344.36862</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2485.10145</v>
+        <v>2539.33991</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5727.26027</v>
+        <v>4076.40199</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7278.90423</v>
+        <v>7177.689530000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>13129.12107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7534.61355</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>15922.579</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>17839.54491</v>
+        <v>18374.31678</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>16924.94785</v>
+        <v>22686.78566</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>35531.47196</v>
+        <v>43468.12286</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>11180.37879</v>
+        <v>14599.1586</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>38820.53951</v>
+        <v>45738.00523</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>40843.50861</v>
+        <v>43609.06384</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>84080.43440000001</v>
+        <v>102492.5616</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>96124.55103</v>
+        <v>117537.19062</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>94981.65854</v>
+        <v>119498.62212</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>567341.08008</v>
+        <v>594919.88066</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>229814.06548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>263208.96671</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>882936.177</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>79.15369</v>
+        <v>105.05547</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>111.48728</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>14.83256</v>
+        <v>19.90357</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>85.39232000000001</v>
+        <v>53.48501</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>212.3843</v>
+        <v>65.27177</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>115.63463</v>
+        <v>43.74366000000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>182.99511</v>
+        <v>7.39329</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>207.47881</v>
+        <v>253.9513</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>157.5929</v>
+        <v>715.4052399999999</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>475.30507</v>
+        <v>31.95381</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>689.17446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>341.88722</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>245.599</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>12.97916</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>200.36779</v>
+        <v>197.26543</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>435.24002</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4557.36316</v>
+        <v>4650.981650000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5219.50914</v>
+        <v>5591.14396</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>6853.49</v>
+        <v>7618.058940000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>7196.31199</v>
+        <v>7197.35693</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11955.9303</v>
+        <v>11865.00555</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>18033.83465</v>
+        <v>16787.29003</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>22561.96182</v>
+        <v>28352.05919</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>28734.17176</v>
+        <v>30184.3819</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>23972.61638</v>
+        <v>26854.00074</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>45935.08481</v>
+        <v>48743.51820000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>53127.16788</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>58521.33424</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>71418.999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>22201.73031</v>
+        <v>24855.50223</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>23800.5132</v>
+        <v>29541.30979</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>36157.22002</v>
+        <v>45431.38723</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>21628.52367</v>
+        <v>24281.30735</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>43895.21228</v>
+        <v>48100.72347999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>50582.27535</v>
+        <v>54595.83781</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>84173.74664</v>
+        <v>94941.88394</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>90925.89554000001</v>
+        <v>113279.85845</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>103878.25534</v>
+        <v>126878.29389</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>504437.17792</v>
+        <v>554009.95902</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>239110.64941</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>254791.40967</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>760344.89</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1119.53814</v>
+        <v>1648.11687</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1574.99943</v>
+        <v>1656.99816</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3968.75092</v>
+        <v>3967.78426</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4148.82037</v>
+        <v>4143.388629999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7545.67246</v>
+        <v>7616.87387</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2782.57066</v>
+        <v>2764.71038</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6115.723309999999</v>
+        <v>6177.92241</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4602.80203</v>
+        <v>4558.9919</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>8486.764499999999</v>
+        <v>8503.13694</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>13479.53517</v>
+        <v>12538.17232</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>14495.73947</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>14810.44305</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>10452.738</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1844.16634</v>
+        <v>2217.73684</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3272.10023</v>
+        <v>4200.943740000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1300.18522</v>
+        <v>1397.24546</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2914.60483</v>
+        <v>2319.93525</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2923.61181</v>
+        <v>3186.41149</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2833.64203</v>
+        <v>3226.2599</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3873.21834</v>
+        <v>3261.02662</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4080.02326</v>
+        <v>4983.874690000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5719.59941</v>
+        <v>9503.40063</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>18638.30697</v>
+        <v>17051.68523</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>17987.7545</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>16319.9544</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>17883.866</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>147.15143</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>87.18008999999999</v>
+        <v>102.54306</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>244.85179</v>
+        <v>244.84059</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>60.97703</v>
+        <v>45.11455</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>600.23715</v>
+        <v>597.27592</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>733.3712399999999</v>
+        <v>711.9072199999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>347.73674</v>
+        <v>1398.2164</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>317.43024</v>
+        <v>385.81069</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>428.4562</v>
+        <v>427.3261</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>2663.77735</v>
+        <v>503.79372</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1000.4321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>717.40927</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3704.782</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>18123.15081</v>
+        <v>18747.64711</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>17875.29453</v>
+        <v>22497.70567</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>27853.29134</v>
+        <v>36766.9851</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>12552.39526</v>
+        <v>15780.07341</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>30917.49367</v>
+        <v>35016.12976</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>41782.74947</v>
+        <v>45205.09462</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>69524.27198999999</v>
+        <v>79117.70187</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>77659.30808</v>
+        <v>97775.84067000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>81475.37518</v>
+        <v>99632.50731999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>460312.15059</v>
+        <v>509246.97584</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>190986.55078</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>208457.68232</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>705543.767</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>13.90994</v>
+        <v>27.73363</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>24.06917</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>77.70531</v>
+        <v>32.11408</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>2.21144</v>
+        <v>25.17144</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>314.2855</v>
+        <v>187.7167</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>17.01397</v>
+        <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>199.0109</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>115.52024</v>
+        <v>162.27014</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>23.28983</v>
+        <v>0.12051</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>680.54493</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>410.20487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>132.77305</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>17.226</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>32.65503</v>
@@ -2425,365 +2516,415 @@
       <c r="M42" s="48" t="n">
         <v>22.44175</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>921.15862</v>
+        <v>2034.46132</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>958.79364</v>
+        <v>1050.97388</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2712.43513</v>
+        <v>3022.41743</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1947.61474</v>
+        <v>1965.72407</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1593.91169</v>
+        <v>1496.31574</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2432.71582</v>
+        <v>2687.65353</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4113.73812</v>
+        <v>4787.9585</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4150.81169</v>
+        <v>5413.070360000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>7744.770219999999</v>
+        <v>8811.802390000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>8662.86291</v>
+        <v>13988.78698</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>14207.52594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>14330.70583</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>22742.504</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10276.19116</v>
+        <v>10878.80043</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>8942.14725</v>
+        <v>13915.56641</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>15156.95499</v>
+        <v>20187.47781</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>13478.14026</v>
+        <v>14877.86874</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>17142.93772</v>
+        <v>22132.15259</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>23815.17544</v>
+        <v>29082.64987</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>28864.57625</v>
+        <v>31783.87966</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>37891.83845</v>
+        <v>45039.80568</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>45847.48875</v>
+        <v>63264.04195000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>99673.86933</v>
+        <v>90278.88934000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>124128.77748</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>125519.24991</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>106616.121</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>10073.56856</v>
+        <v>10653.6868</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>8823.38918</v>
+        <v>11165.65266</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>14990.01726</v>
+        <v>15995.15631</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>13023.10038</v>
+        <v>14591.43543</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>16509.358</v>
+        <v>21813.30715</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>23090.15534</v>
+        <v>28665.78742</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>27956.55499</v>
+        <v>31243.45999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>36476.60179</v>
+        <v>43708.85294</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>44532.41748</v>
+        <v>62423.36846</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>97219.12065000001</v>
+        <v>87844.89104999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>120171.28945</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>121665.66297</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>102589.666</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>202.6226</v>
+        <v>225.11363</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>118.75807</v>
+        <v>2749.91375</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>166.93773</v>
+        <v>4192.3215</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>455.03988</v>
+        <v>286.43331</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>633.57972</v>
+        <v>318.84544</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>725.0201</v>
+        <v>416.86245</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>908.02126</v>
+        <v>540.41967</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1415.23666</v>
+        <v>1330.95274</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1315.07127</v>
+        <v>840.67349</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2454.74868</v>
+        <v>2433.99829</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3957.48803</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3853.58694</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4026.455</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>137162.05744</v>
+        <v>147079.66235</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>146847.04691</v>
+        <v>164016.89136</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>187900.56477</v>
+        <v>185319.04975</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>213169.77885</v>
+        <v>230400.93576</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>322553.14992</v>
+        <v>358778.54326</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>400740.12887</v>
+        <v>415891.76899</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>458388.36124</v>
+        <v>487392.5092</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>474419.25417</v>
+        <v>519318.86833</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>662439.3587100001</v>
+        <v>737295.9503200001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1215630.74932</v>
+        <v>1260284.72511</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1216196.86309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1292526.31457</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2236463.155</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>8344.600400000001</v>
+        <v>8402.80278</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>10101.6183</v>
+        <v>10342.7732</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>12522.03344</v>
+        <v>22131.24207</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>15882.85637</v>
+        <v>15806.49001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>20673.32027</v>
+        <v>18780.33388</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>23967.92548</v>
+        <v>23053.25465</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>27744.75126</v>
+        <v>25337.87824</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>39656.06521</v>
+        <v>41475.30027</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>45038.89922</v>
+        <v>47304.64433</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>70956.67556999999</v>
+        <v>68910.11258</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>97009.27787000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>92215.07967000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>114506.463</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>128.43818</v>
+        <v>235.05691</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>421.90872</v>
+        <v>403.74693</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>742.83233</v>
+        <v>799.3776700000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1035.98115</v>
+        <v>461.76288</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>395.88945</v>
+        <v>386.25842</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>602.12182</v>
+        <v>528.43896</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>971.9475799999999</v>
+        <v>1063.16833</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>943.9378</v>
+        <v>948.17512</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>501.0452</v>
+        <v>627.3296</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1700.57925</v>
+        <v>1964.92343</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6625.55579</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7278.80377</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1309.495</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>8216.16222</v>
+        <v>8167.74587</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>9679.709580000001</v>
+        <v>9939.02627</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>11779.20111</v>
+        <v>21331.8644</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>14846.87522</v>
+        <v>15344.72713</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>20277.43082</v>
+        <v>18394.07546</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>23365.80366</v>
+        <v>22524.81569</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>26772.80368</v>
+        <v>24274.70991</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>38712.12740999999</v>
+        <v>40527.12515</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>44537.85402000001</v>
+        <v>46677.31473</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>69256.09632</v>
+        <v>66945.18915000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>90383.72207999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>84936.27590000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>113196.968</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>14538.16772</v>
+        <v>13928.65626</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>9816.063769999999</v>
+        <v>12422.03784</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>174598.82006</v>
+        <v>164521.81141</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>15949.75304</v>
+        <v>16752.58347</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>17811.354</v>
+        <v>17022.97959</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>122706.13285</v>
+        <v>121748.10572</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>23981.75277</v>
+        <v>26802.5147</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>222552.61997</v>
+        <v>228174.8226</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>48288.80046</v>
+        <v>62804.42404999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>257627.2324</v>
+        <v>267098.72642</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>98623.82394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>111001.00113</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>129145.932</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>510.98975</v>
+        <v>502.05237</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>26.11651</v>
@@ -2801,217 +2942,245 @@
         <v>112.41676</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>64.86552999999999</v>
+        <v>3200.89704</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>89.63176</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>242.11868</v>
+        <v>230.73168</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>388.19721</v>
+        <v>1313.77089</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>317.34537</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>543.9189200000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>294.906</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>672.25968</v>
+        <v>639.61751</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1062.71785</v>
+        <v>1156.23895</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1116.74775</v>
+        <v>1113.56904</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>403.47064</v>
+        <v>406.81559</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1069.56875</v>
+        <v>1377.37523</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4068.96787</v>
+        <v>4528.277599999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1461.3311</v>
+        <v>3407.91266</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3357.26471</v>
+        <v>1775.75979</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1886.82877</v>
+        <v>2409.6078</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2758.1707</v>
+        <v>5444.22622</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9928.078019999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14429.60873</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>10439.67</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>13354.91829</v>
+        <v>12786.98638</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>8727.22941</v>
+        <v>11239.68238</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>173424.45611</v>
+        <v>163350.62617</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>15515.14384</v>
+        <v>16314.62932</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>16687.79315</v>
+        <v>15591.61226</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>118524.74822</v>
+        <v>117107.41136</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>22455.55614</v>
+        <v>20193.705</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>219105.7235</v>
+        <v>226309.43105</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>46159.85301</v>
+        <v>60164.08457</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>254480.86449</v>
+        <v>260340.72931</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>88378.40054999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>96027.47348</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>118411.356</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>130968.49012</v>
+        <v>141553.80887</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>147132.60144</v>
+        <v>161937.62672</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>25823.77815</v>
+        <v>42928.48041</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>213102.88218</v>
+        <v>229454.8423</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>325415.11619</v>
+        <v>360535.89755</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>302001.9215</v>
+        <v>317196.91792</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>462151.35973</v>
+        <v>485927.87274</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>291522.69941</v>
+        <v>332619.346</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>659189.45747</v>
+        <v>721796.1706000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1028960.19249</v>
+        <v>1062096.11127</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1214582.31702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1273740.39311</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2221823.686</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>15193.97178</v>
+        <v>16609.66981</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>17154.22609</v>
+        <v>18479.33144</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>24376.12995</v>
+        <v>24487.75928</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25253.17982</v>
+        <v>24614.98552</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>41850.59241</v>
+        <v>43420.94390999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>52736.15577</v>
+        <v>52353.99172</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>59902.89613</v>
+        <v>64428.44504</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>65691.11349</v>
+        <v>70361.41883</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>82900.86793000001</v>
+        <v>84912.45684</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>144398.61448</v>
+        <v>140511.16004</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>142993.87796</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>151857.0948</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>249378.457</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>115774.51834</v>
+        <v>124944.13906</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>129978.37535</v>
+        <v>143458.29528</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1447.6482</v>
+        <v>18440.72113</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>187849.70236</v>
+        <v>204839.85678</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>283564.52378</v>
+        <v>317114.95364</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>249265.76573</v>
+        <v>264842.9262</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>402248.4636</v>
+        <v>421499.4277</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>225831.58592</v>
+        <v>262257.92717</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>576288.58954</v>
+        <v>636883.71376</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>884561.5780099999</v>
+        <v>921584.95123</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1071588.43906</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1121883.29831</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1972445.229</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>658</v>
+        <v>585</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>782</v>
+        <v>701</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>851</v>
+        <v>775</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>980</v>
+        <v>863</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1220</v>
+        <v>1037</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1414</v>
+        <v>1192</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1668</v>
+        <v>1395</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1906</v>
+        <v>1526</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2292</v>
+        <v>1792</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1666</v>
+        <v>1424</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1587</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>